--- a/Варианты устройства ТТ, Отвл.xlsx
+++ b/Варианты устройства ТТ, Отвл.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\VisualStudio\DevicesSpecification\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8A145A-C438-4E43-AB16-7106324D2C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6775C552-22BD-45AA-906C-F072E7462775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="780" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="1530" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ШБ ТТ" sheetId="4" r:id="rId1"/>
@@ -473,9 +473,6 @@
     <t>Вариант 1.6</t>
   </si>
   <si>
-    <t>Вариан 1.5</t>
-  </si>
-  <si>
     <t>Вариант 1.4</t>
   </si>
   <si>
@@ -489,6 +486,9 @@
   </si>
   <si>
     <t>Вариант 4.0</t>
+  </si>
+  <si>
+    <t>Вариант 1.5</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A202" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C244" sqref="C244"/>
     </sheetView>
   </sheetViews>
@@ -6741,8 +6741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6771,7 +6771,7 @@
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="14"/>
       <c r="B2" s="52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="35"/>
@@ -7111,7 +7111,7 @@
     <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="14"/>
       <c r="B17" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="35"/>
@@ -7451,7 +7451,7 @@
     <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="14"/>
       <c r="B32" s="52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="35"/>
@@ -7791,7 +7791,7 @@
     <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="14"/>
       <c r="B47" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="35"/>
@@ -8131,7 +8131,7 @@
     <row r="62" spans="1:9">
       <c r="A62" s="14"/>
       <c r="B62" s="34" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="35"/>
@@ -8609,7 +8609,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="24">
+    <row r="84" spans="1:9">
       <c r="A84" s="3" t="s">
         <v>67</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="24">
+    <row r="99" spans="1:9">
       <c r="A99" s="3" t="s">
         <v>67</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="24">
+    <row r="114" spans="1:9">
       <c r="A114" s="3" t="s">
         <v>67</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="24">
+    <row r="129" spans="1:9">
       <c r="A129" s="3" t="s">
         <v>67</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="24">
+    <row r="144" spans="1:9">
       <c r="A144" s="3" t="s">
         <v>67</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="24">
+    <row r="154" spans="1:9">
       <c r="A154" s="3" t="s">
         <v>67</v>
       </c>
@@ -10395,7 +10395,7 @@
     <row r="163" spans="1:9">
       <c r="A163" s="14"/>
       <c r="B163" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C163" s="15"/>
       <c r="D163" s="35"/>
@@ -10535,6 +10535,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007856750CF6C1774DA0B6D292F1997207" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6efebe057b0a4b8b9100946c3701eb70">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="df8ffca6-335a-442e-be64-5ecc39960861" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c338c9244d70ff6e7336bc3d7c9157e8" ns3:_="">
     <xsd:import namespace="df8ffca6-335a-442e-be64-5ecc39960861"/>
@@ -10718,22 +10733,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D21CF7F1-86CF-4B70-8D7D-E84F5113A029}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="df8ffca6-335a-442e-be64-5ecc39960861"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBE081E-D177-4246-9FF7-5CFBD5A36A43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81215BFE-1AD5-41F5-B06C-1FBC2E1FE6CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10749,28 +10773,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBE081E-D177-4246-9FF7-5CFBD5A36A43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D21CF7F1-86CF-4B70-8D7D-E84F5113A029}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="df8ffca6-335a-442e-be64-5ecc39960861"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>